--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440931.7795648507</v>
+        <v>361858.5256498604</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527567.3122189699</v>
+        <v>406463.2981009821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13285531.60009102</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7535443.40645326</v>
+        <v>8216597.582314511</v>
       </c>
     </row>
     <row r="11">
@@ -667,61 +667,61 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.68168828355173</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -904,10 +904,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>69.05674881342118</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,23 +1135,23 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>115.9259085885679</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.46948864201228</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.51918986134452</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>40.02188483835992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.19077295368341</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>63.04047895899016</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4108546636942</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>244.5627323611424</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>178.1163791463313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492375</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>41.2780028955664</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>77.90379855317836</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493647</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826716</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>24.20915904959059</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.19077295368341</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>276.1565137023554</v>
+        <v>284.3192806430691</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4427027973382</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.42681674263682</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>276.1565137023554</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>195.8230593039484</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
-        <v>97.23550377478198</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>172.514267391845</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,64 +2475,64 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>128.7835007017901</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>77.23699442272222</v>
       </c>
       <c r="I26" t="n">
-        <v>15.11714581632423</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>41.31028204797107</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>249.0654855425691</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>112.200859218067</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.981799690479</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>269.5177472176154</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>116.1430940756184</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36913259236705</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>141.3279142046489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.465802816548256</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>368.5238654285695</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>223.5067433582063</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5310119231965</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.0167291702125</v>
+        <v>67.4814843750343</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>74.76254277125786</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>120.4455938462341</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>232.546795102019</v>
+        <v>55.9092399153628</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>246.9035352307518</v>
+        <v>110.8162609368711</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>8.7775259900117</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>646.9074088293169</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>487.6699538238614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>341.1353958507464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>202.4045704333619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>89.03543484094119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="F8" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="G8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>846.5570557448675</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.5980815799443</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="C11" t="n">
-        <v>19.56501858889139</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="D11" t="n">
-        <v>19.56501858889139</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="E11" t="n">
-        <v>19.56501858889139</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="F11" t="n">
-        <v>19.56501858889139</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="G11" t="n">
-        <v>19.56501858889139</v>
+        <v>139.1893984583782</v>
       </c>
       <c r="H11" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>124.4399474973462</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>306.8231980260855</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>526.3662512024591</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>734.8297429586089</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>886.4882690646268</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>978.2509294445696</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>978.2509294445696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>827.8051051802445</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>760.6642075620503</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T11" t="n">
-        <v>760.6642075620503</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U11" t="n">
-        <v>760.6642075620503</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="V11" t="n">
-        <v>760.6642075620503</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="W11" t="n">
-        <v>760.6642075620503</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="X11" t="n">
-        <v>760.6642075620503</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="Y11" t="n">
-        <v>513.6311445709973</v>
+        <v>418.1353718951009</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.56501858889139</v>
+        <v>489.7096350639039</v>
       </c>
       <c r="C12" t="n">
-        <v>19.56501858889139</v>
+        <v>315.2566057827769</v>
       </c>
       <c r="D12" t="n">
-        <v>19.56501858889139</v>
+        <v>166.3221961215256</v>
       </c>
       <c r="E12" t="n">
-        <v>19.56501858889139</v>
+        <v>166.3221961215256</v>
       </c>
       <c r="F12" t="n">
-        <v>19.56501858889139</v>
+        <v>166.3221961215256</v>
       </c>
       <c r="G12" t="n">
-        <v>19.56501858889139</v>
+        <v>27.66746035007179</v>
       </c>
       <c r="H12" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>19.56501858889139</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>20.23786849471571</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>251.8996143319767</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>494.0167193695077</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N12" t="n">
-        <v>736.1338244070387</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="O12" t="n">
-        <v>978.2509294445696</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
-        <v>978.2509294445696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>978.2509294445696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>978.2509294445696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>978.2509294445696</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T12" t="n">
-        <v>978.2509294445696</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U12" t="n">
-        <v>750.0278363185935</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V12" t="n">
-        <v>514.8757280868508</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="W12" t="n">
-        <v>267.8426650957979</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="X12" t="n">
-        <v>59.99116489026505</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.56501858889139</v>
+        <v>489.7096350639039</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0312465334349</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0312465334349</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>113.3941021357749</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>19.56501858889139</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>47.85425064936706</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>88.07040250863014</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>132.7649205860522</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>158.0312465334349</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>158.0312465334349</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.0312465334349</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>484.1848034624637</v>
+        <v>1027.041201438318</v>
       </c>
       <c r="C14" t="n">
-        <v>484.1848034624637</v>
+        <v>1027.041201438318</v>
       </c>
       <c r="D14" t="n">
-        <v>484.1848034624637</v>
+        <v>963.3639499645908</v>
       </c>
       <c r="E14" t="n">
-        <v>484.1848034624637</v>
+        <v>963.3639499645908</v>
       </c>
       <c r="F14" t="n">
-        <v>484.1848034624637</v>
+        <v>552.3780451749832</v>
       </c>
       <c r="G14" t="n">
-        <v>266.5980815799443</v>
+        <v>552.3780451749832</v>
       </c>
       <c r="H14" t="n">
-        <v>19.56501858889139</v>
+        <v>218.1571520484632</v>
       </c>
       <c r="I14" t="n">
-        <v>19.56501858889139</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J14" t="n">
-        <v>19.56501858889139</v>
+        <v>96.93923871827218</v>
       </c>
       <c r="K14" t="n">
-        <v>124.4399474973462</v>
+        <v>305.6565612977715</v>
       </c>
       <c r="L14" t="n">
-        <v>306.8231980260855</v>
+        <v>616.8654835480078</v>
       </c>
       <c r="M14" t="n">
-        <v>526.3662512024591</v>
+        <v>979.7519185640737</v>
       </c>
       <c r="N14" t="n">
-        <v>734.8297429586089</v>
+        <v>1333.878237938974</v>
       </c>
       <c r="O14" t="n">
-        <v>886.4882690646267</v>
+        <v>1623.082041653885</v>
       </c>
       <c r="P14" t="n">
-        <v>978.2509294445696</v>
+        <v>1832.236414250553</v>
       </c>
       <c r="Q14" t="n">
-        <v>978.2509294445696</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R14" t="n">
-        <v>978.2509294445696</v>
+        <v>1813.956096613573</v>
       </c>
       <c r="S14" t="n">
-        <v>978.2509294445696</v>
+        <v>1622.144880531211</v>
       </c>
       <c r="T14" t="n">
-        <v>978.2509294445696</v>
+        <v>1400.506959699398</v>
       </c>
       <c r="U14" t="n">
-        <v>978.2509294445696</v>
+        <v>1400.506959699398</v>
       </c>
       <c r="V14" t="n">
-        <v>978.2509294445696</v>
+        <v>1400.506959699398</v>
       </c>
       <c r="W14" t="n">
-        <v>978.2509294445696</v>
+        <v>1400.506959699398</v>
       </c>
       <c r="X14" t="n">
-        <v>978.2509294445696</v>
+        <v>1027.041201438318</v>
       </c>
       <c r="Y14" t="n">
-        <v>731.2178664535166</v>
+        <v>1027.041201438318</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>367.0319839872259</v>
+        <v>635.6625926698835</v>
       </c>
       <c r="C15" t="n">
-        <v>367.0319839872259</v>
+        <v>635.6625926698835</v>
       </c>
       <c r="D15" t="n">
-        <v>325.3370315674619</v>
+        <v>635.6625926698835</v>
       </c>
       <c r="E15" t="n">
-        <v>166.0995765620064</v>
+        <v>476.425137664428</v>
       </c>
       <c r="F15" t="n">
-        <v>19.56501858889139</v>
+        <v>329.890579691313</v>
       </c>
       <c r="G15" t="n">
-        <v>19.56501858889139</v>
+        <v>191.6133889795576</v>
       </c>
       <c r="H15" t="n">
-        <v>19.56501858889139</v>
+        <v>112.9226833702866</v>
       </c>
       <c r="I15" t="n">
-        <v>19.56501858889139</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J15" t="n">
-        <v>19.56501858889139</v>
+        <v>79.50813891877796</v>
       </c>
       <c r="K15" t="n">
-        <v>146.1858617037014</v>
+        <v>79.50813891877796</v>
       </c>
       <c r="L15" t="n">
-        <v>146.1858617037014</v>
+        <v>406.0075960973859</v>
       </c>
       <c r="M15" t="n">
-        <v>388.3029667412324</v>
+        <v>838.9962842806308</v>
       </c>
       <c r="N15" t="n">
-        <v>551.996449470862</v>
+        <v>1163.851773243553</v>
       </c>
       <c r="O15" t="n">
-        <v>794.113554508393</v>
+        <v>1518.388592024568</v>
       </c>
       <c r="P15" t="n">
-        <v>978.2509294445696</v>
+        <v>1785.932577937001</v>
       </c>
       <c r="Q15" t="n">
-        <v>978.2509294445696</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R15" t="n">
-        <v>978.2509294445696</v>
+        <v>1839.076492680903</v>
       </c>
       <c r="S15" t="n">
-        <v>978.2509294445696</v>
+        <v>1674.085213826044</v>
       </c>
       <c r="T15" t="n">
-        <v>978.2509294445696</v>
+        <v>1473.72708538864</v>
       </c>
       <c r="U15" t="n">
-        <v>978.2509294445696</v>
+        <v>1473.72708538864</v>
       </c>
       <c r="V15" t="n">
-        <v>743.0988212128268</v>
+        <v>1473.72708538864</v>
       </c>
       <c r="W15" t="n">
-        <v>743.0988212128268</v>
+        <v>1219.489728660438</v>
       </c>
       <c r="X15" t="n">
-        <v>535.247321007294</v>
+        <v>1011.638228454905</v>
       </c>
       <c r="Y15" t="n">
-        <v>535.247321007294</v>
+        <v>803.8779296899515</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
       <c r="C16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
       <c r="E16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
       <c r="F16" t="n">
-        <v>158.0312465334349</v>
+        <v>207.5491633964345</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0312465334349</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0312465334349</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I16" t="n">
-        <v>113.3941021357749</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J16" t="n">
-        <v>19.56501858889139</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="K16" t="n">
-        <v>19.56501858889139</v>
+        <v>59.5008832572742</v>
       </c>
       <c r="L16" t="n">
-        <v>47.85425064936706</v>
+        <v>142.2318586473017</v>
       </c>
       <c r="M16" t="n">
-        <v>88.07040250863014</v>
+        <v>239.849195551903</v>
       </c>
       <c r="N16" t="n">
-        <v>132.7649205860522</v>
+        <v>340.5800267922421</v>
       </c>
       <c r="O16" t="n">
-        <v>158.0312465334349</v>
+        <v>417.6049576856852</v>
       </c>
       <c r="P16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="Q16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="R16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="S16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="T16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="U16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="W16" t="n">
-        <v>158.0312465334349</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="X16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.0312465334349</v>
+        <v>232.002859406122</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.626054809422</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C17" t="n">
-        <v>1104.626054809422</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D17" t="n">
-        <v>1104.626054809422</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E17" t="n">
-        <v>1066.049756676706</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="F17" t="n">
-        <v>787.1037832399832</v>
+        <v>759.0979824909343</v>
       </c>
       <c r="G17" t="n">
-        <v>508.1578098032604</v>
+        <v>341.1341743891212</v>
       </c>
       <c r="H17" t="n">
-        <v>229.2118363665377</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618843</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.09252109618843</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618843</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618843</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618843</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618843</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888894</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>541.6429362542212</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>562.3310704112774</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945613</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>902.746154837531</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>674.5275424716787</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>674.5275424716787</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>420.290185743477</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>212.4386855379442</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.09252109618843</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618843</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618843</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492714</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160686</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031358</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U19" t="n">
-        <v>198.9927170031358</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V19" t="n">
-        <v>198.9927170031358</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618843</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>896.7353068029593</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C20" t="n">
-        <v>896.7353068029593</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D20" t="n">
-        <v>896.7353068029593</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E20" t="n">
-        <v>617.7893333662366</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F20" t="n">
-        <v>579.9844679696338</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>301.0384945329111</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>142.8373253438682</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173955</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>896.7353068029593</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>896.7353068029593</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>896.7353068029593</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>896.7353068029593</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W20" t="n">
-        <v>896.7353068029593</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X20" t="n">
-        <v>896.7353068029593</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y20" t="n">
-        <v>896.7353068029593</v>
+        <v>1519.351822121131</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196.5455503773155</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618843</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618843</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618843</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4923828364511</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>405.6478494291521</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>641.2451212288495</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2451212288495</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121333</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>932.6220420606003</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>730.7421420887096</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>502.5235297228572</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>404.3058491422694</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>404.3058491422694</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>404.3058491422694</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>196.5455503773155</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492713</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160686</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031358</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9927170031358</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W22" t="n">
-        <v>198.9927170031358</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618843</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1512.612574238668</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1512.612574238668</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>1512.612574238668</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>1126.824321640423</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>1899.21241430279</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6092,19 +6092,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1293.97790721073</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037877</v>
+        <v>1293.97790721073</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>935.7122086039797</v>
       </c>
       <c r="E26" t="n">
-        <v>807.3934508328825</v>
+        <v>549.9239560057354</v>
       </c>
       <c r="F26" t="n">
-        <v>396.407546043275</v>
+        <v>549.9239560057354</v>
       </c>
       <c r="G26" t="n">
-        <v>396.407546043275</v>
+        <v>131.9601479039222</v>
       </c>
       <c r="H26" t="n">
-        <v>69.21282607927782</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6332,25 +6332,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.8926947117852</v>
+        <v>962.1194880117293</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8926947117852</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117852</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>1995.726948307101</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V29" t="n">
-        <v>1995.726948307101</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W29" t="n">
-        <v>1642.958293036987</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X29" t="n">
-        <v>1269.492534775907</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1269.492534775907</v>
+        <v>1348.719328075851</v>
       </c>
     </row>
     <row r="30">
@@ -6539,34 +6539,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>739.4034003911122</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C32" t="n">
-        <v>739.4034003911122</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>1155.132843416447</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>744.1469386268395</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>326.1831305250264</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
         <v>1836.345445977174</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>1386.090004781549</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>995.9506728057374</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C34" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D34" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E34" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>178.6414549202439</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>610.8127275643955</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005474</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="W34" t="n">
-        <v>473.4444960005474</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="X34" t="n">
-        <v>473.4444960005474</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="Y34" t="n">
-        <v>473.4444960005474</v>
+        <v>383.5045402329972</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>464.928886609972</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6979,10 +6979,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.109828622464</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7040,19 +7040,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>709.5665374816297</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>433.1733450557862</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C38" t="n">
-        <v>433.1733450557862</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D38" t="n">
-        <v>433.1733450557862</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>433.1733450557862</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>433.1733450557862</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>433.1733450557862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224079</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1936.146930626914</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>1583.3782753568</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X38" t="n">
-        <v>1209.91251709572</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y38" t="n">
-        <v>819.773185119908</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961344</v>
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,16 +7265,16 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>224.666950679165</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>224.666950679165</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>224.666950679165</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>224.666950679165</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.666950679165</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1954.141365880777</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C41" t="n">
-        <v>1954.141365880777</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.875667274027</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>547.4245098931451</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>129.460701791332</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>129.460701791332</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.280697856589</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.280697856589</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.280697856589</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.280697856589</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.141365880777</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7493,16 +7493,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2173.079728044489</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C43" t="n">
-        <v>2173.079728044489</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2407.975480672791</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2173.079728044489</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W43" t="n">
-        <v>2173.079728044489</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X43" t="n">
-        <v>2173.079728044489</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y43" t="n">
-        <v>2173.079728044489</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1580.775345511217</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.775345511217</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D44" t="n">
-        <v>1580.775345511217</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.987092912972</v>
+        <v>646.5392948972226</v>
       </c>
       <c r="F44" t="n">
-        <v>784.0011881233647</v>
+        <v>646.5392948972226</v>
       </c>
       <c r="G44" t="n">
         <v>534.603677789272</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7681,19 +7681,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="45">
@@ -7727,10 +7727,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
         <v>670.8219208598708</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>62.80916968906314</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7842,16 +7842,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.245041851987</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>384.6945110063437</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>373.8491954283778</v>
+        <v>336.3888653812139</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2788254813442</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.9730561082392</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>65.32190271305285</v>
       </c>
       <c r="L15" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>384.6945110063436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>294.6334153193866</v>
+        <v>342.6755715294748</v>
       </c>
       <c r="O15" t="n">
-        <v>385.2788254813442</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324504</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>132.6470650341469</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>361.0244890520116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.38752410983216</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -22792,10 +22792,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3398840379939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23023,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>44.58217180160739</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138.1711093023382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>120.7101594098652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2879682170718</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3235460419765</v>
+        <v>222.107038305733</v>
       </c>
       <c r="I11" t="n">
-        <v>209.9064962068211</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>142.214025564616</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1591249337519</v>
+        <v>105.9887372420999</v>
       </c>
       <c r="I12" t="n">
-        <v>89.12455904281175</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>99.6672001609758</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1328769967189</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>7.132250799777211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.6608109389445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9843543597988</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1682702466266</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>111.0604701956922</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>21.49978743611831</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.60728995481479</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>176.9955073465141</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>223.9011423785076</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9172826158254</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>218.506287706518</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138.1711093023382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>291.6425626616928</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>199.8771135533776</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>94.7608136808341</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3444713639914</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>106.1670626690724</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1591249337519</v>
+        <v>29.99430100973264</v>
       </c>
       <c r="I15" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>121.2118889733407</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9843543597988</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>162.1682702466266</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
-        <v>111.0604701956922</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>66.73999539781613</v>
       </c>
       <c r="K16" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.60728995481479</v>
+        <v>54.63455058802092</v>
       </c>
       <c r="R16" t="n">
-        <v>176.9955073465141</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
-        <v>223.9011423785076</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9172826158254</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>343.739834920873</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.87643319194541</v>
+        <v>39.60349212128801</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.23999297996616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,25 +23898,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>16.75577602442632</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>369.4492289990746</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>61.87643319194541</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>190.4148793521051</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>135.5650833746433</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,22 +24138,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>50.57846144115931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>234.3617783498664</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,7 +24420,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>246.6857783416349</v>
       </c>
       <c r="I26" t="n">
-        <v>136.814170428537</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>323.9626097230365</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>2.158681965720206</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.5087961709701</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>128.7520419730016</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>54.4050255467418</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,7 +24970,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>43.85831389017028</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,16 +25125,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>96.00244487440055</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.3647090711135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>182.5948585597083</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>284.8160714254295</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>14.20997623491104</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>100.4160294061509</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.81525101172477</v>
+        <v>112.350495806903</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>77.16877347360339</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>130.7785736620552</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>19.59084822180901</v>
+        <v>196.2284034084652</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>166.8806347900432</v>
+        <v>302.9679090839239</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.6435220329195</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26082,13 +26082,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493611.8881503923</v>
+        <v>520820.66408407</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493611.8881503923</v>
+        <v>677893.167226196</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520820.6640840699</v>
+        <v>830601.3156845408</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520820.6640840698</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830601.3156845408</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830601.3156845408</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830601.3156845408</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830601.3156845409</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830601.3156845408</v>
+        <v>830601.3156845407</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830601.3156845407</v>
+        <v>830601.3156845408</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>125490.1462622123</v>
+        <v>132886.3748292383</v>
       </c>
       <c r="F2" t="n">
-        <v>125490.1462622123</v>
+        <v>175466.9880515818</v>
       </c>
       <c r="G2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="H2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="I2" t="n">
         <v>216864.4575118182</v>
@@ -26343,13 +26343,13 @@
         <v>216864.4575118182</v>
       </c>
       <c r="L2" t="n">
+        <v>216864.4575118182</v>
+      </c>
+      <c r="M2" t="n">
+        <v>216864.4575118183</v>
+      </c>
+      <c r="N2" t="n">
         <v>216864.4575118181</v>
-      </c>
-      <c r="M2" t="n">
-        <v>216864.4575118182</v>
-      </c>
-      <c r="N2" t="n">
-        <v>216864.4575118182</v>
       </c>
       <c r="O2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4011.079628431048</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>195194.8921689328</v>
       </c>
       <c r="G3" t="n">
-        <v>33031.57585235868</v>
+        <v>185152.0893328025</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>363855.276088607</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>884.2863098579821</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>49441.87186138668</v>
       </c>
       <c r="O3" t="n">
-        <v>7603.07507354423</v>
+        <v>47231.86264112642</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>33663.59862924286</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="F4" t="n">
-        <v>33663.59862924285</v>
+        <v>34875.92377764283</v>
       </c>
       <c r="G4" t="n">
-        <v>33777.16046143054</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>33777.16046143055</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
         <v>35944.74664026682</v>
@@ -26447,7 +26447,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="M4" t="n">
         <v>35944.74664026682</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>14949.50433863014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>14949.50433863014</v>
+        <v>33615.28060221578</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26505,7 +26505,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38080.0426810678</v>
+        <v>-50298.05330110829</v>
       </c>
       <c r="C6" t="n">
-        <v>42689.3888504799</v>
+        <v>30471.37823043945</v>
       </c>
       <c r="D6" t="n">
-        <v>42689.38885047992</v>
+        <v>30471.37823043947</v>
       </c>
       <c r="E6" t="n">
-        <v>72865.96366590826</v>
+        <v>31259.6011304674</v>
       </c>
       <c r="F6" t="n">
-        <v>76877.04329433934</v>
+        <v>-97047.35354037797</v>
       </c>
       <c r="G6" t="n">
-        <v>48523.85899866895</v>
+        <v>-59532.2702704797</v>
       </c>
       <c r="H6" t="n">
-        <v>81555.43485102756</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="I6" t="n">
-        <v>-232167.0432804651</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="J6" t="n">
-        <v>68628.29020903564</v>
+        <v>62559.87646321653</v>
       </c>
       <c r="K6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="L6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623227</v>
       </c>
       <c r="M6" t="n">
-        <v>130803.946498284</v>
+        <v>116862.2360671091</v>
       </c>
       <c r="N6" t="n">
-        <v>131688.2328081419</v>
+        <v>76177.94720093597</v>
       </c>
       <c r="O6" t="n">
-        <v>124085.1577345977</v>
+        <v>78387.95642119629</v>
       </c>
       <c r="P6" t="n">
-        <v>131688.2328081419</v>
+        <v>125619.8190623227</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>3.673862893242319</v>
+        <v>208.7913421435329</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912533</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,34 +26798,34 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>244.5627323611424</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>244.5627323611424</v>
+        <v>478.0202194652428</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>173.7700814244076</v>
       </c>
       <c r="G3" t="n">
-        <v>31.347397825883</v>
+        <v>168.9523220735538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>342.7224034979614</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.548443483483339</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="G4" t="n">
-        <v>31.59378134121303</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483339</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>31.59378134121292</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483339</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>31.59378134121303</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01476929806328569</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1512560737906247</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5693933635848223</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>1.253525711498795</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>1.878710098517679</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>2.330706004121959</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>2.593359508554916</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>2.635322776677227</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>2.488460569060429</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>2.123843523123063</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.594918036231644</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9277519194678708</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3365553796171231</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06465260227203316</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07631930274452442</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2720738086033228</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>1.276043491891533</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>1.715797948395859</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>2.002255276817064</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05524901609789</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>1.880151324242605</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>1.508987194773435</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.008717977782306</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4906339916673424</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1467812203102001</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03185169810273293</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1992317778827147</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4683874052581232</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7697043897645381</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9849566189522114</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>1.038498653576677</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013805476753246</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>0.936413446952977</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8012634742900949</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5547532968795902</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2978840306553526</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1154556584646807</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01476929806328569</v>
+        <v>0.8393621794714884</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1512560737906246</v>
+        <v>8.596117920512382</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5693933635848223</v>
+        <v>32.35951042407459</v>
       </c>
       <c r="J14" t="n">
-        <v>1.253525711498795</v>
+        <v>71.2398157799183</v>
       </c>
       <c r="K14" t="n">
-        <v>1.878710098517679</v>
+        <v>106.7700168369464</v>
       </c>
       <c r="L14" t="n">
-        <v>2.330706004121959</v>
+        <v>132.457647136947</v>
       </c>
       <c r="M14" t="n">
-        <v>2.593359508554916</v>
+        <v>147.3846542961231</v>
       </c>
       <c r="N14" t="n">
-        <v>2.635322776677226</v>
+        <v>149.7694920885465</v>
       </c>
       <c r="O14" t="n">
-        <v>2.488460569060429</v>
+        <v>141.4230844164268</v>
       </c>
       <c r="P14" t="n">
-        <v>2.123843523123063</v>
+        <v>120.7013306107245</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.594918036231644</v>
+        <v>90.64167255840175</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9277519194678707</v>
+        <v>52.72558450622593</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3365553796171231</v>
+        <v>19.12696566470656</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06465260227203315</v>
+        <v>3.674307940636442</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.06714897435771905</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.4490983585728821</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07631930274452442</v>
+        <v>4.337344673585467</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2720738086033227</v>
+        <v>15.46237769647862</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578566</v>
+        <v>42.42994623692304</v>
       </c>
       <c r="K15" t="n">
-        <v>1.276043491891533</v>
+        <v>72.51953626130614</v>
       </c>
       <c r="L15" t="n">
-        <v>1.715797948395859</v>
+        <v>97.51146596995846</v>
       </c>
       <c r="M15" t="n">
-        <v>2.002255276817063</v>
+        <v>113.7912814682254</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05524901609789</v>
+        <v>116.8029980921637</v>
       </c>
       <c r="O15" t="n">
-        <v>1.880151324242604</v>
+        <v>106.8519239364173</v>
       </c>
       <c r="P15" t="n">
-        <v>1.508987194773435</v>
+        <v>85.75808919099185</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.008717977782306</v>
+        <v>57.32701152589983</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4906339916673423</v>
+        <v>27.88349282437597</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1467812203102001</v>
+        <v>8.341805037526992</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03185169810273292</v>
+        <v>1.810181541791572</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0005198862584776868</v>
+        <v>0.02954594464295278</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.3765089776358789</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05890226081296705</v>
+        <v>3.347507092071726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1992317778827147</v>
+        <v>11.32265180017716</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4683874052581231</v>
+        <v>26.61918471885664</v>
       </c>
       <c r="K16" t="n">
-        <v>0.769704389764538</v>
+        <v>43.74349758351393</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9849566189522113</v>
+        <v>55.97661654779241</v>
       </c>
       <c r="M16" t="n">
-        <v>1.038498653576677</v>
+        <v>59.01949364886782</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013805476753246</v>
+        <v>57.61614200495232</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9364134469529769</v>
+        <v>53.21783258438771</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8012634742900948</v>
+        <v>45.53704944061574</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5547532968795902</v>
+        <v>31.52749266367346</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2978840306553525</v>
+        <v>16.92921275806415</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1154556584646807</v>
+        <v>6.561524637527087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02830681245612933</v>
+        <v>1.608720177171482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.02053685332559342</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760119</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677232</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081217</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411506</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870377</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847512</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626978</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520187</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727678</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779989</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335884</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0865870919233</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833408</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164375</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263569</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623703</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227321</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174387</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170845</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894682</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948818</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394049</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179684</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938412</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587925</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457196</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>22.217558194707</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727676</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>105.9342716247019</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>184.2255055845852</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>221.7606597741147</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>210.5691835920705</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>153.1904304101191</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>92.68955593933616</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6796463695195167</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>234.0017634719808</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>244.5627323611424</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>244.5627323611424</v>
+        <v>224.6389055562147</v>
       </c>
       <c r="O12" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>28.57498187926835</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>40.62237561541726</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>45.14597785598184</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>25.52154136099265</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>59.29052642530579</v>
       </c>
       <c r="K14" t="n">
-        <v>105.9342716247019</v>
+        <v>210.8255783631306</v>
       </c>
       <c r="L14" t="n">
-        <v>184.2255055845852</v>
+        <v>314.3524467174102</v>
       </c>
       <c r="M14" t="n">
-        <v>221.7606597741147</v>
+        <v>366.5519545616828</v>
       </c>
       <c r="N14" t="n">
-        <v>210.5691835920705</v>
+        <v>357.7033529039397</v>
       </c>
       <c r="O14" t="n">
-        <v>153.1904304101191</v>
+        <v>292.1250542574854</v>
       </c>
       <c r="P14" t="n">
-        <v>92.68955593933616</v>
+        <v>211.2670430269376</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.65097334385695</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.68335491066519</v>
       </c>
       <c r="K15" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>329.7974314935435</v>
       </c>
       <c r="M15" t="n">
-        <v>244.5627323611424</v>
+        <v>437.362311296207</v>
       </c>
       <c r="N15" t="n">
-        <v>165.3469522521511</v>
+        <v>328.1368575383053</v>
       </c>
       <c r="O15" t="n">
-        <v>244.5627323611424</v>
+        <v>358.1179987687024</v>
       </c>
       <c r="P15" t="n">
-        <v>185.9973484203803</v>
+        <v>270.2464504165988</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.4225251757274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>21.47400575763108</v>
       </c>
       <c r="L16" t="n">
-        <v>28.57498187926835</v>
+        <v>83.56664180810856</v>
       </c>
       <c r="M16" t="n">
-        <v>40.62237561541726</v>
+        <v>98.6033706107084</v>
       </c>
       <c r="N16" t="n">
-        <v>45.14597785598184</v>
+        <v>101.7483143841809</v>
       </c>
       <c r="O16" t="n">
-        <v>25.52154136099265</v>
+        <v>77.80296049842738</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>42.81560870550923</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424823</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023554</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>20.89710520914767</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199196</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062264</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>4.9166388158319</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7877391315784</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>237.9770422219166</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
